--- a/ipa_2/myUtils/games.xlsx
+++ b/ipa_2/myUtils/games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A47318-E94A-403E-B9AF-76B7EFB9C580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A4B2B7-FD81-4107-B93E-8760F9982AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>phase</t>
   </si>
@@ -93,49 +93,22 @@
     <t>tutorial</t>
   </si>
   <si>
-    <t>trade</t>
-  </si>
-  <si>
-    <t>romantic</t>
-  </si>
-  <si>
-    <t>friendship</t>
-  </si>
-  <si>
     <t>tutorial game</t>
   </si>
   <si>
     <t>PD</t>
   </si>
   <si>
-    <t>עסקה</t>
-  </si>
-  <si>
-    <t>לא עסקה</t>
-  </si>
-  <si>
-    <t>דייט</t>
-  </si>
-  <si>
-    <t>לא דייט</t>
-  </si>
-  <si>
-    <t>חברות</t>
-  </si>
-  <si>
-    <t>לא חברות</t>
-  </si>
-  <si>
-    <t>לתקוף</t>
-  </si>
-  <si>
-    <t>לא לתקוף</t>
-  </si>
-  <si>
-    <t>violence</t>
-  </si>
-  <si>
     <t>neutral</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>Chicken</t>
   </si>
 </sst>
 </file>
@@ -462,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +497,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>0.6</v>
@@ -568,23 +541,22 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0.6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B10" si="0">(K3-I3)/(K3-I3+G3-M3)</f>
-        <v>0.7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -613,23 +585,22 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>0.85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -658,23 +629,22 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -703,23 +673,22 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>0.85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -744,230 +713,6 @@
       </c>
       <c r="N6">
         <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
-        <v>0.6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_2/myUtils/games.xlsx
+++ b/ipa_2/myUtils/games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A4B2B7-FD81-4107-B93E-8760F9982AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956199B0-D8D7-428F-A87E-6544410C8C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>phase</t>
   </si>
@@ -82,12 +82,6 @@
   </si>
   <si>
     <t>pB_Bb</t>
-  </si>
-  <si>
-    <t>שת''פ</t>
-  </si>
-  <si>
-    <t>תחרות</t>
   </si>
   <si>
     <t>tutorial</t>
@@ -438,20 +432,20 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -495,24 +489,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0.6</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -539,24 +533,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>0.6</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -583,24 +577,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>0.85</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -627,24 +621,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>0.4</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -671,24 +665,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>0.85</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6">
         <v>7</v>

--- a/ipa_2/myUtils/games.xlsx
+++ b/ipa_2/myUtils/games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956199B0-D8D7-428F-A87E-6544410C8C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A8929E-D911-414A-96EF-4D13726FF4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,28 +553,28 @@
         <v>19</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -597,28 +597,28 @@
         <v>19</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -641,28 +641,28 @@
         <v>19</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>40</v>
+      </c>
+      <c r="K5">
+        <v>40</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>7</v>
-      </c>
-      <c r="K5">
-        <v>7</v>
-      </c>
-      <c r="L5">
+      <c r="N5">
         <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -685,28 +685,28 @@
         <v>19</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>70</v>
+      </c>
+      <c r="K6">
+        <v>70</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="K6">
-        <v>8</v>
-      </c>
-      <c r="L6">
+      <c r="N6">
         <v>0</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_2/myUtils/games.xlsx
+++ b/ipa_2/myUtils/games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A8929E-D911-414A-96EF-4D13726FF4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822BA03E-96E7-4371-B04E-7092EF0A74BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,20 +432,20 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -489,7 +489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -533,12 +533,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -577,12 +577,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -621,12 +621,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5">
-        <v>0.4</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -665,12 +665,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>

--- a/ipa_2/myUtils/games.xlsx
+++ b/ipa_2/myUtils/games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822BA03E-96E7-4371-B04E-7092EF0A74BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A07083A-EFFA-4D59-93A8-1CC639737B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,13 +96,13 @@
     <t>neutral</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>@</t>
-  </si>
-  <si>
     <t>Chicken</t>
+  </si>
+  <si>
+    <t>Φ</t>
+  </si>
+  <si>
+    <t>Ω</t>
   </si>
 </sst>
 </file>
@@ -432,20 +432,20 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -489,7 +489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -497,7 +497,7 @@
         <v>0.6</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -533,7 +533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -541,7 +541,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -577,7 +577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -585,7 +585,7 @@
         <v>0.8</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -621,15 +621,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>0.55000000000000004</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -665,15 +665,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>

--- a/ipa_2/myUtils/games.xlsx
+++ b/ipa_2/myUtils/games.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A07083A-EFFA-4D59-93A8-1CC639737B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C345C863-1F67-45DF-98A9-F61D1D050C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,7 +582,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -597,19 +597,19 @@
         <v>19</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I4">
         <v>5</v>
       </c>
       <c r="J4">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -685,10 +685,10 @@
         <v>19</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I6">
         <v>10</v>
